--- a/documents/システム画面設計書_ClinicAppointmentSystem_未完成.xlsx
+++ b/documents/システム画面設計書_ClinicAppointmentSystem_未完成.xlsx
@@ -1690,7 +1690,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="173">
   <si>
     <t xml:space="preserve">画面一覧</t>
   </si>
@@ -2262,91 +2262,16 @@
     <t xml:space="preserve">戻るリンク</t>
   </si>
   <si>
-    <t xml:space="preserve">会員一覧画面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員一覧の閲覧</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員の一覧（指定されたページに該当する分のみ）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A. 会員の登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[10] 押下により会員登録画面に遷移する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. 会員の編集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[8] 押下により会員編集画面に遷移する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C. 会員の削除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[9] 押下により会員削除完了画面に遷移する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. ページの切り替え</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1] 押下により指定ページに遷移する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E. ログアウト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[11] 押下によりログアウト完了画面に遷移する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ページング</t>
-  </si>
-  <si>
     <t xml:space="preserve">複数頁時のみ表示</t>
   </si>
   <si>
     <t xml:space="preserve">データ</t>
   </si>
   <si>
-    <t xml:space="preserve">会員情報</t>
-  </si>
-  <si>
     <t xml:space="preserve">テキスト</t>
   </si>
   <si>
     <t xml:space="preserve">OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名前</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年齢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員種別</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登録日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ナビゲーション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員編集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員削除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">会員追加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ログアウト</t>
   </si>
 </sst>
 </file>
@@ -2381,7 +2306,7 @@
     <numFmt numFmtId="188" formatCode="\¥#,##0;[RED]&quot;-¥&quot;#,##0"/>
     <numFmt numFmtId="189" formatCode="m\月d\日"/>
   </numFmts>
-  <fonts count="128">
+  <fonts count="127">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3229,13 +3154,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF808080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -6191,9 +6109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>93240</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6203,7 +6121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="514440"/>
-          <a:ext cx="3705480" cy="2169000"/>
+          <a:ext cx="3705120" cy="2168640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6238,9 +6156,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>134640</xdr:colOff>
+      <xdr:colOff>134280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6250,7 +6168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2062440" y="625680"/>
-          <a:ext cx="824760" cy="214560"/>
+          <a:ext cx="824400" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6312,9 +6230,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>134640</xdr:colOff>
+      <xdr:colOff>134280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6324,7 +6242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2062440" y="833040"/>
-          <a:ext cx="824760" cy="827280"/>
+          <a:ext cx="824400" cy="826920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6386,9 +6304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6398,7 +6316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3623400" y="625680"/>
-          <a:ext cx="824760" cy="214560"/>
+          <a:ext cx="824400" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6460,9 +6378,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6472,7 +6390,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3623400" y="833040"/>
-          <a:ext cx="824760" cy="827280"/>
+          <a:ext cx="824400" cy="826920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6534,9 +6452,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>90000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6546,7 +6464,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5186880" y="613800"/>
-          <a:ext cx="824760" cy="219600"/>
+          <a:ext cx="824400" cy="219240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6608,9 +6526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6620,7 +6538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5186880" y="826200"/>
-          <a:ext cx="824760" cy="847440"/>
+          <a:ext cx="824400" cy="847080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6682,9 +6600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
+      <xdr:colOff>39240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6694,7 +6612,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3619440" y="2156400"/>
-          <a:ext cx="824400" cy="219600"/>
+          <a:ext cx="824040" cy="219240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6756,9 +6674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
+      <xdr:colOff>39240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6768,7 +6686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3619440" y="2368800"/>
-          <a:ext cx="824400" cy="847440"/>
+          <a:ext cx="824040" cy="847080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6941,9 +6859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>39960</xdr:colOff>
+      <xdr:colOff>39600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6953,7 +6871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1496520" y="1154520"/>
-          <a:ext cx="195120" cy="184680"/>
+          <a:ext cx="194760" cy="184320"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6985,9 +6903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6997,7 +6915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4540680" y="1002240"/>
-          <a:ext cx="644760" cy="211320"/>
+          <a:ext cx="644400" cy="210960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7090,9 +7008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7102,7 +7020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3415680" y="1768680"/>
-          <a:ext cx="641520" cy="216000"/>
+          <a:ext cx="641160" cy="215640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7232,9 +7150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
+      <xdr:colOff>99360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7244,7 +7162,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2941920" y="1044000"/>
-          <a:ext cx="644760" cy="211320"/>
+          <a:ext cx="644400" cy="210960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7337,9 +7255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>140760</xdr:colOff>
+      <xdr:colOff>140400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7349,7 +7267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2068560" y="3533760"/>
-          <a:ext cx="824760" cy="214560"/>
+          <a:ext cx="824400" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7411,9 +7329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>140760</xdr:colOff>
+      <xdr:colOff>140400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7423,7 +7341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2068560" y="3741120"/>
-          <a:ext cx="824760" cy="827280"/>
+          <a:ext cx="824400" cy="826920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7498,9 +7416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7510,7 +7428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3622680" y="3533760"/>
-          <a:ext cx="824760" cy="214560"/>
+          <a:ext cx="824400" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7572,9 +7490,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>42840</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7584,7 +7502,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3622680" y="3741120"/>
-          <a:ext cx="824760" cy="827280"/>
+          <a:ext cx="824400" cy="826920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7683,9 +7601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>77040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7695,7 +7613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2919600" y="3835440"/>
-          <a:ext cx="644760" cy="211320"/>
+          <a:ext cx="644400" cy="210960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7825,9 +7743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>46800</xdr:colOff>
+      <xdr:colOff>46440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7837,7 +7755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1503360" y="4061520"/>
-          <a:ext cx="195120" cy="184680"/>
+          <a:ext cx="194760" cy="184320"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -7869,9 +7787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
+      <xdr:colOff>132120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7881,7 +7799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5180400" y="3520080"/>
-          <a:ext cx="824400" cy="219600"/>
+          <a:ext cx="824040" cy="219240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7943,9 +7861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
+      <xdr:colOff>132120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7955,7 +7873,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5180400" y="3732480"/>
-          <a:ext cx="824400" cy="847440"/>
+          <a:ext cx="824040" cy="847080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8067,9 +7985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8079,7 +7997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4511160" y="3818160"/>
-          <a:ext cx="641520" cy="216000"/>
+          <a:ext cx="641160" cy="215640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8172,9 +8090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>105480</xdr:colOff>
+      <xdr:colOff>105120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8184,7 +8102,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1299240" y="4253400"/>
-          <a:ext cx="641520" cy="216000"/>
+          <a:ext cx="641160" cy="215640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8241,9 +8159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>97920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8253,7 +8171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1292040" y="1332360"/>
-          <a:ext cx="641520" cy="216000"/>
+          <a:ext cx="641160" cy="215640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8310,9 +8228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
+      <xdr:colOff>133560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8322,7 +8240,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2061720" y="2174760"/>
-          <a:ext cx="824760" cy="214560"/>
+          <a:ext cx="824400" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8384,9 +8302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
+      <xdr:colOff>133560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8396,7 +8314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2061720" y="2382120"/>
-          <a:ext cx="824760" cy="827280"/>
+          <a:ext cx="824400" cy="826920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8495,9 +8413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>59400</xdr:colOff>
+      <xdr:colOff>59040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8507,7 +8425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2534400" y="1860120"/>
-          <a:ext cx="644760" cy="211320"/>
+          <a:ext cx="644400" cy="210960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8625,9 +8543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>134280</xdr:colOff>
+      <xdr:colOff>133920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8637,7 +8555,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1757880" y="1838880"/>
-          <a:ext cx="762120" cy="211320"/>
+          <a:ext cx="761760" cy="210960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8736,9 +8654,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>192240</xdr:colOff>
+      <xdr:colOff>191880</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8748,15 +8666,15 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2171520" y="1553400"/>
-          <a:ext cx="2510640" cy="3456000"/>
+          <a:ext cx="2510280" cy="3455640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 122400 w 2510640"/>
-            <a:gd name="textAreaRight" fmla="*/ 2389680 w 2510640"/>
-            <a:gd name="textAreaTop" fmla="*/ 127800 h 3456000"/>
-            <a:gd name="textAreaBottom" fmla="*/ 3329280 h 3456000"/>
+            <a:gd name="textAreaLeft" fmla="*/ 122400 w 2510280"/>
+            <a:gd name="textAreaRight" fmla="*/ 2389680 w 2510280"/>
+            <a:gd name="textAreaTop" fmla="*/ 127800 h 3455640"/>
+            <a:gd name="textAreaBottom" fmla="*/ 3329280 h 3455640"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
@@ -8810,9 +8728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
+      <xdr:colOff>23400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8822,15 +8740,15 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7756200" y="5315040"/>
-          <a:ext cx="67320" cy="205920"/>
+          <a:ext cx="66960" cy="205560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 67320"/>
-            <a:gd name="textAreaRight" fmla="*/ 69840 w 67320"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 205920"/>
-            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205920"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 66960"/>
+            <a:gd name="textAreaRight" fmla="*/ 69840 w 66960"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 205560"/>
+            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205560"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
@@ -8879,9 +8797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>285840</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8891,15 +8809,15 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6499800" y="5315040"/>
-          <a:ext cx="66240" cy="205920"/>
+          <a:ext cx="65880" cy="205560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 66240"/>
-            <a:gd name="textAreaRight" fmla="*/ 68760 w 66240"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 205920"/>
-            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205920"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 65880"/>
+            <a:gd name="textAreaRight" fmla="*/ 68760 w 65880"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 205560"/>
+            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205560"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
@@ -8948,9 +8866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
+      <xdr:colOff>33120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8960,7 +8878,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2296800" y="3630960"/>
-          <a:ext cx="2226600" cy="338400"/>
+          <a:ext cx="2226240" cy="338040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9021,9 +8939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9033,7 +8951,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2332440" y="2567160"/>
-          <a:ext cx="2205360" cy="266400"/>
+          <a:ext cx="2205000" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9094,9 +9012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>41760</xdr:colOff>
+      <xdr:colOff>41400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9106,7 +9024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2318400" y="3114000"/>
-          <a:ext cx="2213280" cy="280440"/>
+          <a:ext cx="2212920" cy="280080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9167,7 +9085,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>250920</xdr:colOff>
+      <xdr:colOff>250560</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
@@ -9179,7 +9097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2425680" y="1753560"/>
-          <a:ext cx="2035800" cy="267480"/>
+          <a:ext cx="2035440" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9236,9 +9154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>348480</xdr:colOff>
+      <xdr:colOff>348120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9248,7 +9166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4626000" y="2597400"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9308,9 +9226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>328320</xdr:colOff>
+      <xdr:colOff>327960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9320,7 +9238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4605840" y="3694680"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9380,9 +9298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>327600</xdr:colOff>
+      <xdr:colOff>327240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9392,7 +9310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4605120" y="3168000"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9452,7 +9370,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>414720</xdr:colOff>
+      <xdr:colOff>414360</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
@@ -9464,7 +9382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3072960" y="2025000"/>
-          <a:ext cx="695880" cy="229320"/>
+          <a:ext cx="695520" cy="229320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9521,7 +9439,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>549000</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
@@ -9533,7 +9451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2242440" y="2343960"/>
-          <a:ext cx="787680" cy="204120"/>
+          <a:ext cx="787320" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9590,7 +9508,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>565200</xdr:colOff>
+      <xdr:colOff>564840</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
@@ -9602,7 +9520,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2258640" y="2890440"/>
-          <a:ext cx="787680" cy="204120"/>
+          <a:ext cx="787320" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9659,7 +9577,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>224640</xdr:colOff>
+      <xdr:colOff>224280</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
@@ -9671,7 +9589,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2464920" y="4303080"/>
-          <a:ext cx="1970280" cy="204120"/>
+          <a:ext cx="1969920" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9728,7 +9646,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
@@ -9740,7 +9658,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2923200" y="4496760"/>
-          <a:ext cx="972720" cy="204120"/>
+          <a:ext cx="972360" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9797,9 +9715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>613440</xdr:colOff>
+      <xdr:colOff>613080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9809,7 +9727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3755160" y="4502520"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9874,9 +9792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
+      <xdr:colOff>23400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9886,15 +9804,15 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7756200" y="5315040"/>
-          <a:ext cx="67320" cy="205920"/>
+          <a:ext cx="66960" cy="205560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 67320"/>
-            <a:gd name="textAreaRight" fmla="*/ 69840 w 67320"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 205920"/>
-            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205920"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 66960"/>
+            <a:gd name="textAreaRight" fmla="*/ 69840 w 66960"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 205560"/>
+            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205560"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
@@ -9943,9 +9861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>285840</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9955,15 +9873,15 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6499800" y="5315040"/>
-          <a:ext cx="66240" cy="205920"/>
+          <a:ext cx="65880" cy="205560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 66240"/>
-            <a:gd name="textAreaRight" fmla="*/ 68760 w 66240"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 205920"/>
-            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205920"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 65880"/>
+            <a:gd name="textAreaRight" fmla="*/ 68760 w 65880"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 205560"/>
+            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205560"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
@@ -10012,9 +9930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10024,15 +9942,15 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2053080" y="1493280"/>
-          <a:ext cx="2510640" cy="3939120"/>
+          <a:ext cx="2510280" cy="3938760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 122400 w 2510640"/>
-            <a:gd name="textAreaRight" fmla="*/ 2389680 w 2510640"/>
-            <a:gd name="textAreaTop" fmla="*/ 145800 h 3939120"/>
-            <a:gd name="textAreaBottom" fmla="*/ 3794760 h 3939120"/>
+            <a:gd name="textAreaLeft" fmla="*/ 122400 w 2510280"/>
+            <a:gd name="textAreaRight" fmla="*/ 2389680 w 2510280"/>
+            <a:gd name="textAreaTop" fmla="*/ 145800 h 3938760"/>
+            <a:gd name="textAreaBottom" fmla="*/ 3794760 h 3938760"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
@@ -10086,7 +10004,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>140760</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>13680</xdr:rowOff>
     </xdr:to>
@@ -10098,7 +10016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2342880" y="1632240"/>
-          <a:ext cx="2008800" cy="267480"/>
+          <a:ext cx="2008440" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10155,7 +10073,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>452520</xdr:colOff>
+      <xdr:colOff>452160</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
@@ -10167,7 +10085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2763720" y="1924560"/>
-          <a:ext cx="1042920" cy="229320"/>
+          <a:ext cx="1042560" cy="229320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10224,9 +10142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10236,7 +10154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2175840" y="2504160"/>
-          <a:ext cx="2218320" cy="266400"/>
+          <a:ext cx="2217960" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10297,9 +10215,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10309,7 +10227,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2463480" y="2613600"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10369,7 +10287,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
+      <xdr:colOff>485280</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
@@ -10381,7 +10299,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2147040" y="2268720"/>
-          <a:ext cx="819720" cy="204120"/>
+          <a:ext cx="819360" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10438,9 +10356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>308880</xdr:colOff>
+      <xdr:colOff>308520</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10450,7 +10368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3273840" y="2303280"/>
-          <a:ext cx="389160" cy="203040"/>
+          <a:ext cx="388800" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10478,9 +10396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>188640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10490,7 +10408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2196360" y="3647160"/>
-          <a:ext cx="2203200" cy="266400"/>
+          <a:ext cx="2202840" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10550,9 +10468,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>551160</xdr:colOff>
+      <xdr:colOff>550800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10562,7 +10480,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2177640" y="2863800"/>
-          <a:ext cx="854640" cy="203040"/>
+          <a:ext cx="854280" cy="202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10590,9 +10508,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>694440</xdr:colOff>
+      <xdr:colOff>694080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10602,7 +10520,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2181600" y="3078720"/>
-          <a:ext cx="993960" cy="280440"/>
+          <a:ext cx="993600" cy="280080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10663,9 +10581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>506160</xdr:colOff>
+      <xdr:colOff>505800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10675,7 +10593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2774880" y="3281400"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10735,9 +10653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>411840</xdr:colOff>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10747,7 +10665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3226320" y="3076560"/>
-          <a:ext cx="539640" cy="282600"/>
+          <a:ext cx="539280" cy="282240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10808,9 +10726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>69840</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10820,7 +10738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3386160" y="3267720"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10880,9 +10798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
+      <xdr:colOff>190080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10892,7 +10810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3809880" y="3076560"/>
-          <a:ext cx="591120" cy="282600"/>
+          <a:ext cx="590760" cy="282240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10953,7 +10871,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>470520</xdr:colOff>
+      <xdr:colOff>470160</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
@@ -10965,7 +10883,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2163960" y="2855160"/>
-          <a:ext cx="787680" cy="204120"/>
+          <a:ext cx="787320" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11022,7 +10940,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>474840</xdr:colOff>
+      <xdr:colOff>474480</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
@@ -11034,7 +10952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2168280" y="3422880"/>
-          <a:ext cx="787680" cy="204120"/>
+          <a:ext cx="787320" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11091,9 +11009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>199440</xdr:colOff>
+      <xdr:colOff>199080</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11103,7 +11021,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2183400" y="4655520"/>
-          <a:ext cx="2226600" cy="338400"/>
+          <a:ext cx="2226240" cy="338040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11164,9 +11082,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>2880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11176,7 +11094,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4001400" y="3269880"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11236,9 +11154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
+      <xdr:colOff>64440</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11248,7 +11166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4342320" y="3698640"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11308,9 +11226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>82080</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11320,7 +11238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4359600" y="4171680"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11380,9 +11298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>174960</xdr:colOff>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11392,7 +11310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4452480" y="4703040"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11452,7 +11370,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>549000</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
@@ -11464,7 +11382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2624400" y="5111280"/>
-          <a:ext cx="1278720" cy="204120"/>
+          <a:ext cx="1278360" cy="204120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11521,9 +11439,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>569880</xdr:colOff>
+      <xdr:colOff>569520</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11533,7 +11451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3711600" y="5097960"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11593,9 +11511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
+      <xdr:colOff>196560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11605,7 +11523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2204280" y="4167000"/>
-          <a:ext cx="2203200" cy="266400"/>
+          <a:ext cx="2202840" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11651,7 +11569,6 @@
             <a:effectLst/>
             <a:uFillTx/>
             <a:latin typeface="游明朝"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -11667,7 +11584,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>437400</xdr:colOff>
+      <xdr:colOff>437040</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
@@ -11679,7 +11596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2147040" y="3959640"/>
-          <a:ext cx="1644480" cy="217440"/>
+          <a:ext cx="1644120" cy="217440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11789,9 +11706,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
+      <xdr:colOff>106560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11801,7 +11718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10963080" y="3370680"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11861,9 +11778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>154800</xdr:colOff>
+      <xdr:colOff>154440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11873,7 +11790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11535120" y="3370680"/>
-          <a:ext cx="212760" cy="212040"/>
+          <a:ext cx="212400" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11933,9 +11850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
+      <xdr:colOff>146520</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11945,7 +11862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12052080" y="3370680"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12005,9 +11922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12017,7 +11934,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12745440" y="3370680"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12077,9 +11994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>88200</xdr:colOff>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12089,7 +12006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13566960" y="3370680"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12149,9 +12066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>210600</xdr:colOff>
+      <xdr:colOff>210240</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12161,7 +12078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14212800" y="3370680"/>
-          <a:ext cx="213480" cy="212040"/>
+          <a:ext cx="213120" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12221,9 +12138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
+      <xdr:colOff>64440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12233,7 +12150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14592600" y="3370680"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12293,9 +12210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285840</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12305,15 +12222,15 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6500160" y="5315040"/>
-          <a:ext cx="66240" cy="205920"/>
+          <a:ext cx="65880" cy="205560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 66240"/>
-            <a:gd name="textAreaRight" fmla="*/ 68760 w 66240"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 205920"/>
-            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205920"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 65880"/>
+            <a:gd name="textAreaRight" fmla="*/ 68760 w 65880"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 205560"/>
+            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205560"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
@@ -12362,9 +12279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>23760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12374,15 +12291,15 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7756560" y="5315040"/>
-          <a:ext cx="67320" cy="205920"/>
+          <a:ext cx="66960" cy="205560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="textAreaLeft" fmla="*/ 0 w 67320"/>
-            <a:gd name="textAreaRight" fmla="*/ 69840 w 67320"/>
-            <a:gd name="textAreaTop" fmla="*/ 0 h 205920"/>
-            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205920"/>
+            <a:gd name="textAreaLeft" fmla="*/ 0 w 66960"/>
+            <a:gd name="textAreaRight" fmla="*/ 69840 w 66960"/>
+            <a:gd name="textAreaTop" fmla="*/ 0 h 205560"/>
+            <a:gd name="textAreaBottom" fmla="*/ 208440 h 205560"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
@@ -12431,9 +12348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>937440</xdr:colOff>
+      <xdr:colOff>937080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12443,7 +12360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="812160"/>
-          <a:ext cx="7217640" cy="365040"/>
+          <a:ext cx="7217280" cy="364680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12504,9 +12421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>48240</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12516,7 +12433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5853600" y="1112400"/>
-          <a:ext cx="212400" cy="212040"/>
+          <a:ext cx="212040" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12576,9 +12493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:colOff>534600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12588,7 +12505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4969440" y="922680"/>
-          <a:ext cx="754200" cy="206640"/>
+          <a:ext cx="753840" cy="206280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12645,9 +12562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>306000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>305640</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12657,7 +12574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5832000" y="917640"/>
-          <a:ext cx="754200" cy="206640"/>
+          <a:ext cx="753840" cy="206280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12714,9 +12631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12726,7 +12643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5049000" y="1086120"/>
-          <a:ext cx="212400" cy="212760"/>
+          <a:ext cx="212040" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12786,9 +12703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>77040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12798,7 +12715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="267840" y="1837440"/>
-          <a:ext cx="1417320" cy="325080"/>
+          <a:ext cx="1416960" cy="324720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12830,9 +12747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>717840</xdr:colOff>
+      <xdr:colOff>717480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12842,7 +12759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="410040" y="1546560"/>
-          <a:ext cx="1112400" cy="192960"/>
+          <a:ext cx="1112040" cy="192600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12898,9 +12815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>768600</xdr:colOff>
+      <xdr:colOff>768240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12910,7 +12827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="318600" y="1892880"/>
-          <a:ext cx="1254600" cy="234000"/>
+          <a:ext cx="1254240" cy="233640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17302,7 +17219,7 @@
   <dimension ref="A1:BL1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="0" sqref="E41"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.62890625" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -17368,17 +17285,13 @@
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
-        <v>169</v>
-      </c>
+      <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
-      <c r="L2" s="28" t="s">
-        <v>170</v>
-      </c>
+      <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
@@ -17486,9 +17399,7 @@
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="34"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="39" t="s">
-        <v>171</v>
-      </c>
+      <c r="O8" s="39"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39"/>
@@ -17523,9 +17434,7 @@
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="34"/>
       <c r="N11" s="38"/>
-      <c r="O11" s="39" t="s">
-        <v>172</v>
-      </c>
+      <c r="O11" s="39"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
@@ -17536,9 +17445,7 @@
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="34"/>
       <c r="N12" s="38"/>
-      <c r="O12" s="39" t="s">
-        <v>173</v>
-      </c>
+      <c r="O12" s="39"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
@@ -17559,9 +17466,7 @@
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="34"/>
       <c r="N14" s="38"/>
-      <c r="O14" s="39" t="s">
-        <v>174</v>
-      </c>
+      <c r="O14" s="39"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="39"/>
@@ -17572,9 +17477,7 @@
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="34"/>
       <c r="N15" s="42"/>
-      <c r="O15" s="39" t="s">
-        <v>175</v>
-      </c>
+      <c r="O15" s="39"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39"/>
@@ -17595,9 +17498,7 @@
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="34"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="39" t="s">
-        <v>176</v>
-      </c>
+      <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
       <c r="R17" s="39"/>
@@ -17608,9 +17509,7 @@
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="34"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="39" t="s">
-        <v>177</v>
-      </c>
+      <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
       <c r="R18" s="39"/>
@@ -17631,9 +17530,7 @@
     <row r="20" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="34"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="39" t="s">
-        <v>178</v>
-      </c>
+      <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
       <c r="R20" s="39"/>
@@ -17644,9 +17541,7 @@
     <row r="21" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="34"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="39" t="s">
-        <v>179</v>
-      </c>
+      <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
@@ -17668,9 +17563,7 @@
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="34"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="39" t="s">
-        <v>180</v>
-      </c>
+      <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
       <c r="R23" s="39"/>
@@ -17681,9 +17574,7 @@
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="34"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="39" t="s">
-        <v>181</v>
-      </c>
+      <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
       <c r="R24" s="39"/>
@@ -18004,13 +17895,9 @@
       <c r="B40" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>182</v>
-      </c>
+      <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
-        <v>136</v>
-      </c>
+      <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13" t="s">
         <v>135</v>
@@ -18029,7 +17916,7 @@
         <v>2</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="N40" s="13" t="s">
         <v>126</v>
@@ -18057,21 +17944,17 @@
         <v>2</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>136</v>
-      </c>
+      <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>126</v>
@@ -18112,21 +17995,17 @@
         <v>3</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="13" t="s">
-        <v>188</v>
-      </c>
+      <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H42" s="52" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>126</v>
@@ -18167,21 +18046,17 @@
         <v>4</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>189</v>
-      </c>
+      <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H43" s="52" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>126</v>
@@ -18222,21 +18097,17 @@
         <v>5</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H44" s="52" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I44" s="13" t="s">
         <v>126</v>
@@ -18277,21 +18148,17 @@
         <v>6</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C45" s="13"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="13" t="s">
-        <v>191</v>
-      </c>
+      <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I45" s="13" t="s">
         <v>126</v>
@@ -18332,21 +18199,17 @@
         <v>7</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>192</v>
-      </c>
+      <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="H46" s="52" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="I46" s="13" t="s">
         <v>126</v>
@@ -18389,13 +18252,9 @@
       <c r="B47" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>193</v>
-      </c>
+      <c r="C47" s="13"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
-        <v>194</v>
-      </c>
+      <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13" t="s">
         <v>135</v>
@@ -18444,13 +18303,9 @@
       <c r="B48" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>193</v>
-      </c>
+      <c r="C48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="13" t="s">
-        <v>195</v>
-      </c>
+      <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13" t="s">
         <v>135</v>
@@ -18499,13 +18354,9 @@
       <c r="B49" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>193</v>
-      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="13" t="s">
-        <v>196</v>
-      </c>
+      <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13" t="s">
         <v>135</v>
@@ -18554,13 +18405,9 @@
       <c r="B50" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>193</v>
-      </c>
+      <c r="C50" s="13"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>197</v>
-      </c>
+      <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13" t="s">
         <v>135</v>
